--- a/Document/3_Test Case/test case jooyoung.xlsx
+++ b/Document/3_Test Case/test case jooyoung.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\한빈\Desktop\융종설\ChemicalManagementApplication\Document\3_Test Case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5AC370-4B8A-42D0-86E3-78AC1AD0033C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688FFFB-E132-2A48-863E-23D8B58A5838}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId1"/>
-    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId2"/>
-    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId3"/>
-    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId4"/>
+    <sheet name="주영" sheetId="15" r:id="rId1"/>
+    <sheet name="Use Case 2 myLab 재고 소진 약품 관리" sheetId="13" r:id="rId2"/>
+    <sheet name="Use Case 3 myLab 멤버 구성" sheetId="7" r:id="rId3"/>
+    <sheet name="Use Case 4 myLab 사용 기기 관리" sheetId="9" r:id="rId4"/>
+    <sheet name="Use Case 5 myLab 약품 사용에 따른 유효기간" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="247">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -933,15 +934,78 @@
     <t>약품 의심질병 알림 - my Lab에 Dimethylacetamide 처음 등록 후 1개월 이상 이지만 (내가 Lab에 속한지 1개월이 된 경우)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>약품 이름 입력 - 약품 이름 입력 오류</t>
+  </si>
+  <si>
+    <t>약품 별칭 입력 - 약품 별칭 중복</t>
+  </si>
+  <si>
+    <t>약품 별칭 미입력 - 해당 약품이 기존에 존재하지 않는 경우</t>
+  </si>
+  <si>
+    <t>약품 별칭 미입력 - 해당 약품이 기존에 존재하는 경우</t>
+  </si>
+  <si>
+    <t>보관 장소 선택 - 등록된 보관 장소가 없는 경우</t>
+  </si>
+  <si>
+    <t>보관 장소 선택 - 추천할 보관 장소가 없는 경우</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 고체일 때</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 액체일 때</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품의 성상이 기체일 때</t>
+  </si>
+  <si>
+    <t>약품 등록 - 약품 등록 취소</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>약품 이름 입력 - 약품 등록창 확인</t>
+  </si>
+  <si>
+    <t>약품 별칭 입력 - 약품 등록창 확인</t>
+  </si>
+  <si>
+    <t>약품 정보 등록창 생성</t>
+  </si>
+  <si>
+    <t>양</t>
+  </si>
+  <si>
+    <t>유효기간</t>
+  </si>
+  <si>
+    <t>현재 DB 상태</t>
+  </si>
+  <si>
+    <t>보관장소</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>5년</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
+    <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1059,7 +1123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1100,12 +1164,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1143,9 +1213,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -1446,61 +1531,423 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E894319-8189-EF46-89D4-7A09EF24BC8F}">
+  <dimension ref="B2:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
+  <cols>
+    <col min="4" max="4" width="63.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="10" customWidth="1"/>
+    <col min="7" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.5" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="14" max="14" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B2" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>243</v>
+      </c>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="J3" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="N3" s="26"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B4" s="21"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="O4" s="38"/>
+      <c r="P4" s="37"/>
+    </row>
+    <row r="5" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="35" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="L5" s="36"/>
+      <c r="M5" s="36"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="37"/>
+    </row>
+    <row r="6" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B6" s="21"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="35" t="s">
+        <v>239</v>
+      </c>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="37"/>
+    </row>
+    <row r="7" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="O7" s="6"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="7"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="2:16" ht="34" customHeight="1">
+      <c r="B9" s="2"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="O9" s="7"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="2:16" ht="34" customHeight="1">
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="O10" s="7"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="2:16" ht="34" customHeight="1">
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="O11" s="7"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="2:16" ht="34" customHeight="1">
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="3"/>
+    </row>
+    <row r="13" spans="2:16" ht="34" customHeight="1">
+      <c r="B13" s="2"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="16" t="s">
+        <v>213</v>
+      </c>
+      <c r="O13" s="7"/>
+      <c r="P13" s="3"/>
+    </row>
+    <row r="14" spans="2:16" ht="34" customHeight="1">
+      <c r="B14" s="2"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="16" t="s">
+        <v>215</v>
+      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="3"/>
+    </row>
+    <row r="15" spans="2:16" ht="34" customHeight="1">
+      <c r="B15" s="2"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8"/>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
+      <c r="N15" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="7"/>
+      <c r="P15" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="I2:M2"/>
+  </mergeCells>
+  <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
+  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:N4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="63.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.25" customWidth="1"/>
-    <col min="14" max="14" width="122.75" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.08203125" customWidth="1"/>
+    <col min="13" max="13" width="9.1640625" customWidth="1"/>
+    <col min="14" max="14" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="23" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="21" t="s">
+      <c r="O2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="23" t="s">
+      <c r="P2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:16" ht="34.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -1528,11 +1975,11 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="24"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="24"/>
-    </row>
-    <row r="4" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="N3" s="26"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="26"/>
+    </row>
+    <row r="4" spans="2:16" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -1571,7 +2018,7 @@
       <c r="O4" s="6"/>
       <c r="P4" s="3"/>
     </row>
-    <row r="5" spans="2:16" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:16" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -1610,7 +2057,7 @@
       <c r="O5" s="7"/>
       <c r="P5" s="3"/>
     </row>
-    <row r="6" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:16" ht="34" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -1649,7 +2096,7 @@
       <c r="O6" s="7"/>
       <c r="P6" s="3"/>
     </row>
-    <row r="7" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:16" ht="34" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -1688,7 +2135,7 @@
       <c r="O7" s="7"/>
       <c r="P7" s="3"/>
     </row>
-    <row r="8" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:16" ht="34" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -1727,7 +2174,7 @@
       <c r="O8" s="7"/>
       <c r="P8" s="3"/>
     </row>
-    <row r="9" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:16" ht="34" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -1766,7 +2213,7 @@
       <c r="O9" s="7"/>
       <c r="P9" s="3"/>
     </row>
-    <row r="10" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:16" ht="34" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -1805,7 +2252,7 @@
       <c r="O10" s="7"/>
       <c r="P10" s="3"/>
     </row>
-    <row r="11" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:16" ht="34" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -1844,7 +2291,7 @@
       <c r="O11" s="7"/>
       <c r="P11" s="3"/>
     </row>
-    <row r="12" spans="2:16" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:16" ht="34" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -1900,69 +2347,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:T22"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="57" customWidth="1"/>
-    <col min="6" max="6" width="29.08203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="35.9140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.9140625" customWidth="1"/>
+    <col min="12" max="12" width="14.83203125" customWidth="1"/>
     <col min="13" max="14" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="4.9140625" customWidth="1"/>
-    <col min="18" max="18" width="78.58203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="15.08203125" customWidth="1"/>
+    <col min="17" max="17" width="4.83203125" customWidth="1"/>
+    <col min="18" max="18" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="23" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="21" t="s">
+      <c r="S2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:20" ht="34.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2000,11 +2447,11 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="24"/>
-    </row>
-    <row r="4" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="R3" s="26"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="26"/>
+    </row>
+    <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -2053,7 +2500,7 @@
       <c r="S4" s="6"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:20" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -2102,7 +2549,7 @@
       <c r="S5" s="6"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:20" ht="34.25" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -2151,7 +2598,7 @@
       <c r="S6" s="6"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:20" ht="34.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -2200,7 +2647,7 @@
       <c r="S7" s="7"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:20" ht="34.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -2223,7 +2670,7 @@
       <c r="S8" s="7"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:20" ht="34.25" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -2272,7 +2719,7 @@
       <c r="S9" s="6"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:20" ht="34.25" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -2321,7 +2768,7 @@
       <c r="S10" s="6"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:20" ht="34.25" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -2370,7 +2817,7 @@
       <c r="S11" s="6"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:20" ht="34.25" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -2419,7 +2866,7 @@
       <c r="S12" s="6"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:20" ht="34.25" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -2468,7 +2915,7 @@
       <c r="S13" s="6"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:20" ht="34.25" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -2517,7 +2964,7 @@
       <c r="S14" s="6"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:20" ht="34.25" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
@@ -2566,7 +3013,7 @@
       <c r="S15" s="6"/>
       <c r="T15" s="3"/>
     </row>
-    <row r="16" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:20" ht="34.25" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -2615,7 +3062,7 @@
       <c r="S16" s="6"/>
       <c r="T16" s="3"/>
     </row>
-    <row r="17" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:20" ht="34.25" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
@@ -2664,7 +3111,7 @@
       <c r="S17" s="7"/>
       <c r="T17" s="3"/>
     </row>
-    <row r="18" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:20" ht="34.25" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
@@ -2687,7 +3134,7 @@
       <c r="S18" s="7"/>
       <c r="T18" s="3"/>
     </row>
-    <row r="19" spans="2:20" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:20" ht="34" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -2736,7 +3183,7 @@
       <c r="S19" s="7"/>
       <c r="T19" s="3"/>
     </row>
-    <row r="20" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:20" ht="34.25" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -2785,7 +3232,7 @@
       <c r="S20" s="7"/>
       <c r="T20" s="3"/>
     </row>
-    <row r="21" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:20" ht="34.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -2834,7 +3281,7 @@
       <c r="S21" s="7"/>
       <c r="T21" s="3"/>
     </row>
-    <row r="22" spans="2:20" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:20" ht="34.25" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -2900,69 +3347,69 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DE9A16F-3B8A-4EE1-BCF4-9CE04D903D1A}">
   <dimension ref="B2:S14"/>
   <sheetViews>
     <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="57" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="29" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
-    <col min="7" max="7" width="29.08203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.4140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.9140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.1640625" customWidth="1"/>
-    <col min="11" max="11" width="14.9140625" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
     <col min="12" max="12" width="15.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.6640625" customWidth="1"/>
     <col min="16" max="16" width="9.1640625" customWidth="1"/>
-    <col min="17" max="17" width="78.58203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.08203125" customWidth="1"/>
+    <col min="17" max="17" width="78.5" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="29" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="23" t="s">
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="21" t="s">
+      <c r="R2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:19" ht="34.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2999,11 +3446,11 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="24"/>
-    </row>
-    <row r="4" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="Q3" s="26"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="26"/>
+    </row>
+    <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -3051,7 +3498,7 @@
       <c r="R4" s="6"/>
       <c r="S4" s="3"/>
     </row>
-    <row r="5" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:19" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -3099,7 +3546,7 @@
       <c r="R5" s="6"/>
       <c r="S5" s="3"/>
     </row>
-    <row r="6" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:19" ht="34.25" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -3147,7 +3594,7 @@
       <c r="R6" s="7"/>
       <c r="S6" s="3"/>
     </row>
-    <row r="7" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:19" ht="34.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -3195,7 +3642,7 @@
       <c r="R7" s="7"/>
       <c r="S7" s="3"/>
     </row>
-    <row r="8" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:19" ht="34.25" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -3243,7 +3690,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="3"/>
     </row>
-    <row r="9" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:19" ht="34.25" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
@@ -3291,7 +3738,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="3"/>
     </row>
-    <row r="10" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:19" ht="34.25" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -3339,7 +3786,7 @@
       <c r="R10" s="7"/>
       <c r="S10" s="3"/>
     </row>
-    <row r="11" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:19" ht="34.25" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -3387,7 +3834,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="3"/>
     </row>
-    <row r="12" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:19" ht="34.25" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -3435,7 +3882,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="3"/>
     </row>
-    <row r="13" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:19" ht="34.25" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -3457,7 +3904,7 @@
       <c r="R13" s="7"/>
       <c r="S13" s="3"/>
     </row>
-    <row r="14" spans="2:19" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:19" ht="34.25" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -3522,62 +3969,64 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF60FC4F-1231-4521-9838-1744E08E27E4}">
   <dimension ref="B2:O37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
-    <col min="4" max="4" width="112.4140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.08203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.58203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="112.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="9.5" customWidth="1"/>
-    <col min="12" max="12" width="9.25" customWidth="1"/>
-    <col min="13" max="13" width="94.4140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.08203125" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" customWidth="1"/>
+    <col min="13" max="13" width="94.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:15" ht="34.25" customHeight="1">
+      <c r="B2" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="23" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="21" t="s">
+      <c r="N2" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="25" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B3" s="24"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
+    <row r="3" spans="2:15" ht="34.25" customHeight="1">
+      <c r="B3" s="26"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -3602,11 +4051,11 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="24"/>
-    </row>
-    <row r="4" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="M3" s="26"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="26"/>
+    </row>
+    <row r="4" spans="2:15" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
       <c r="C4" s="1"/>
       <c r="D4" s="8" t="s">
@@ -3642,7 +4091,7 @@
       <c r="N4" s="6"/>
       <c r="O4" s="3"/>
     </row>
-    <row r="5" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:15" ht="34.25" customHeight="1">
       <c r="B5" s="2"/>
       <c r="C5" s="1"/>
       <c r="D5" s="8" t="s">
@@ -3678,7 +4127,7 @@
       <c r="N5" s="7"/>
       <c r="O5" s="3"/>
     </row>
-    <row r="6" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:15" ht="34" customHeight="1">
       <c r="B6" s="2"/>
       <c r="C6" s="1"/>
       <c r="D6" s="8" t="s">
@@ -3714,7 +4163,7 @@
       <c r="N6" s="7"/>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:15" ht="34" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
@@ -3750,7 +4199,7 @@
       <c r="N7" s="7"/>
       <c r="O7" s="3"/>
     </row>
-    <row r="8" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:15" ht="34" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
@@ -3786,14 +4235,14 @@
       <c r="N8" s="7"/>
       <c r="O8" s="3"/>
     </row>
-    <row r="9" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:15" ht="34" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>124</v>
@@ -3822,7 +4271,7 @@
       <c r="N9" s="7"/>
       <c r="O9" s="3"/>
     </row>
-    <row r="10" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:15" ht="34" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
@@ -3858,7 +4307,7 @@
       <c r="N10" s="7"/>
       <c r="O10" s="3"/>
     </row>
-    <row r="11" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:15" ht="34" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
@@ -3894,7 +4343,7 @@
       <c r="N11" s="7"/>
       <c r="O11" s="3"/>
     </row>
-    <row r="12" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:15" ht="34" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
@@ -3930,7 +4379,7 @@
       <c r="N12" s="7"/>
       <c r="O12" s="3"/>
     </row>
-    <row r="13" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:15" ht="34" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
@@ -3966,7 +4415,7 @@
       <c r="N13" s="7"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:15" ht="34" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
@@ -4002,7 +4451,7 @@
       <c r="N14" s="7"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:15" ht="34" customHeight="1">
       <c r="B15" s="2"/>
       <c r="C15" s="1"/>
       <c r="D15" s="8" t="s">
@@ -4038,7 +4487,7 @@
       <c r="N15" s="7"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:15" ht="34.25" customHeight="1">
       <c r="B16" s="2"/>
       <c r="C16" s="1"/>
       <c r="D16" s="8" t="s">
@@ -4074,7 +4523,7 @@
       <c r="N16" s="7"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:15" ht="34.25" customHeight="1">
       <c r="B17" s="2"/>
       <c r="C17" s="1"/>
       <c r="D17" s="8" t="s">
@@ -4110,7 +4559,7 @@
       <c r="N17" s="6"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:15" ht="34.25" customHeight="1">
       <c r="B18" s="2"/>
       <c r="C18" s="1"/>
       <c r="D18" s="8" t="s">
@@ -4128,7 +4577,7 @@
       <c r="N18" s="6"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:15" ht="34.25" customHeight="1">
       <c r="B19" s="2"/>
       <c r="C19" s="1"/>
       <c r="D19" s="8" t="s">
@@ -4146,7 +4595,7 @@
       <c r="N19" s="6"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:15" ht="34.25" customHeight="1">
       <c r="B20" s="2"/>
       <c r="C20" s="1"/>
       <c r="D20" s="8" t="s">
@@ -4182,7 +4631,7 @@
       <c r="N20" s="6"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:15" ht="34.25" customHeight="1">
       <c r="B21" s="2"/>
       <c r="C21" s="1"/>
       <c r="D21" s="8" t="s">
@@ -4218,7 +4667,7 @@
       <c r="N21" s="6"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:15" ht="34.25" customHeight="1">
       <c r="B22" s="2"/>
       <c r="C22" s="1"/>
       <c r="D22" s="8" t="s">
@@ -4254,7 +4703,7 @@
       <c r="N22" s="6"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:15" ht="34.25" customHeight="1">
       <c r="B23" s="2"/>
       <c r="C23" s="1"/>
       <c r="D23" s="8" t="s">
@@ -4290,7 +4739,7 @@
       <c r="N23" s="6"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:15" ht="34.25" customHeight="1">
       <c r="B24" s="2"/>
       <c r="C24" s="1"/>
       <c r="D24" s="8" t="s">
@@ -4326,7 +4775,7 @@
       <c r="N24" s="6"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:15" ht="34.25" customHeight="1">
       <c r="B25" s="2"/>
       <c r="C25" s="1"/>
       <c r="D25" s="8" t="s">
@@ -4362,7 +4811,7 @@
       <c r="N25" s="6"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:15" ht="34.25" customHeight="1">
       <c r="B26" s="2"/>
       <c r="C26" s="1"/>
       <c r="D26" s="8" t="s">
@@ -4398,7 +4847,7 @@
       <c r="N26" s="6"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:15" ht="34.25" customHeight="1">
       <c r="B27" s="2"/>
       <c r="C27" s="1"/>
       <c r="D27" s="8" t="s">
@@ -4434,7 +4883,7 @@
       <c r="N27" s="6"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:15" ht="34.25" customHeight="1">
       <c r="B28" s="2"/>
       <c r="C28" s="1"/>
       <c r="D28" s="8" t="s">
@@ -4470,7 +4919,7 @@
       <c r="N28" s="6"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:15" ht="34.25" customHeight="1">
       <c r="B29" s="2"/>
       <c r="C29" s="1"/>
       <c r="D29" s="8" t="s">
@@ -4506,7 +4955,7 @@
       <c r="N29" s="6"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:15" ht="34.25" customHeight="1">
       <c r="B30" s="2"/>
       <c r="C30" s="1"/>
       <c r="D30" s="8" t="s">
@@ -4542,7 +4991,7 @@
       <c r="N30" s="6"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:15" ht="34.25" customHeight="1">
       <c r="B31" s="2"/>
       <c r="C31" s="1"/>
       <c r="D31" s="8" t="s">
@@ -4578,7 +5027,7 @@
       <c r="N31" s="6"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:15" ht="34.25" customHeight="1">
       <c r="B32" s="2"/>
       <c r="C32" s="1"/>
       <c r="D32" s="8" t="s">
@@ -4614,7 +5063,7 @@
       <c r="N32" s="6"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:15" ht="34.25" customHeight="1">
       <c r="B33" s="2"/>
       <c r="C33" s="1"/>
       <c r="D33" s="8" t="s">
@@ -4650,7 +5099,7 @@
       <c r="N33" s="6"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" spans="2:15" ht="34.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:15" ht="34.25" customHeight="1">
       <c r="B34" s="2"/>
       <c r="C34" s="1"/>
       <c r="D34" s="8" t="s">
@@ -4686,7 +5135,7 @@
       <c r="N34" s="6"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:15" ht="34" customHeight="1">
       <c r="B35" s="2"/>
       <c r="C35" s="1"/>
       <c r="D35" s="8" t="s">
@@ -4722,7 +5171,7 @@
       <c r="N35" s="7"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:15" ht="34" customHeight="1">
       <c r="B36" s="2"/>
       <c r="C36" s="1"/>
       <c r="D36" s="8" t="s">
@@ -4758,7 +5207,7 @@
       <c r="N36" s="7"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" spans="2:15" ht="34" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:15" ht="34" customHeight="1">
       <c r="B37" s="2"/>
       <c r="C37" s="1"/>
       <c r="D37" s="8" t="s">

--- a/Document/3_Test Case/test case jooyoung.xlsx
+++ b/Document/3_Test Case/test case jooyoung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jennifer/Documents/GitHub/ChemicalManagementApplication/Document/3_Test Case/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D688FFFB-E132-2A48-863E-23D8B58A5838}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26AB3D49-B2D1-8943-8B19-3600F1748ED9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="275">
   <si>
     <t>Scenario 명</t>
   </si>
@@ -971,15 +971,6 @@
     <t>yes</t>
   </si>
   <si>
-    <t>약품 이름 입력 - 약품 등록창 확인</t>
-  </si>
-  <si>
-    <t>약품 별칭 입력 - 약품 등록창 확인</t>
-  </si>
-  <si>
-    <t>약품 정보 등록창 생성</t>
-  </si>
-  <si>
     <t>양</t>
   </si>
   <si>
@@ -989,13 +980,106 @@
     <t>현재 DB 상태</t>
   </si>
   <si>
-    <t>보관장소</t>
-  </si>
-  <si>
     <t>이름</t>
   </si>
   <si>
     <t>5년</t>
+  </si>
+  <si>
+    <t>별칭</t>
+  </si>
+  <si>
+    <t>에탄올_한빈</t>
+  </si>
+  <si>
+    <t>Ethannol</t>
+  </si>
+  <si>
+    <t>100g</t>
+  </si>
+  <si>
+    <t>냉장고1</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
+  </si>
+  <si>
+    <t>금_혁주</t>
+  </si>
+  <si>
+    <t>벤젠_주영</t>
+  </si>
+  <si>
+    <t>산소_영모</t>
+  </si>
+  <si>
+    <t>에탄올1</t>
+  </si>
+  <si>
+    <t>존재하는 약품</t>
+  </si>
+  <si>
+    <t>존재하는 별칭</t>
+  </si>
+  <si>
+    <t>존재하는 보관 장소</t>
+  </si>
+  <si>
+    <t>별칭이 Ethanol1로 설정된 상태로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>별칭이 Ethanol2로 설정된 상태로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>보관함1</t>
+  </si>
+  <si>
+    <t>보관함2</t>
+  </si>
+  <si>
+    <t>냉장고1, 보관함1, 보관함2</t>
+  </si>
+  <si>
+    <t>약품 정보 등록창에 등록한 정보를 바탕으로 약품이 등록된다.</t>
+  </si>
+  <si>
+    <t>존재하지 않는 약품의 이름입니다. 다시 한번 확인해주세요' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>이미 존재하는 별칭입니다. 다시 한번 확인해주세요.' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>약품 이름, 별칭 입력 - 약품 등록창 확인</t>
+  </si>
+  <si>
+    <t>추천 장소가 없습니다. 기존 장소를 선택하거나 새로 장소를 추가하여 등록해주세요.' 팝업창 생성</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 장소가 뜨지 않고 장소 추가 메뉴만 출력된다.</t>
+  </si>
+  <si>
+    <t>보관 장소</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '보관함1'이 출력된다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '냉장고1'이 출력된다.</t>
+  </si>
+  <si>
+    <t>보관 장소 선택창에 '보관함2'가 출력된다.</t>
+  </si>
+  <si>
+    <t>유스케이스 종료</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1089,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1022,6 +1106,20 @@
       <sz val="8"/>
       <name val="돋움"/>
       <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
     </font>
   </fonts>
@@ -1123,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1177,17 +1275,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1213,20 +1329,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1532,358 +1637,559 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E894319-8189-EF46-89D4-7A09EF24BC8F}">
-  <dimension ref="B2:P15"/>
+  <dimension ref="B2:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="E3" zoomScale="81" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
     <col min="4" max="4" width="63.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="10" customWidth="1"/>
-    <col min="7" max="8" width="9.83203125" customWidth="1"/>
-    <col min="9" max="9" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="9.5" customWidth="1"/>
-    <col min="13" max="13" width="9.1640625" customWidth="1"/>
-    <col min="14" max="14" width="122.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="5" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="9.5" customWidth="1"/>
+    <col min="15" max="15" width="9.1640625" customWidth="1"/>
+    <col min="16" max="16" width="122.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" ht="34.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+    <row r="2" spans="2:18" ht="34.25" customHeight="1">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
+      <c r="E2" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="25" t="s">
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="Q2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="R2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:16" ht="34.25" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="10" t="s">
-        <v>245</v>
-      </c>
+    <row r="3" spans="2:18" ht="34.25" customHeight="1">
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
       <c r="J3" s="10" t="s">
         <v>241</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="M3" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="26"/>
-    </row>
-    <row r="4" spans="2:16" ht="34.25" customHeight="1">
+      <c r="P3" s="30"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="30"/>
+    </row>
+    <row r="4" spans="2:18" ht="34.25" customHeight="1">
       <c r="B4" s="21"/>
       <c r="C4" s="22"/>
-      <c r="D4" s="35" t="s">
-        <v>238</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
+      <c r="D4" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
+      <c r="J4" s="8" t="s">
+        <v>201</v>
+      </c>
       <c r="K4" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L4" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L4" s="8"/>
       <c r="M4" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="O4" s="38"/>
-      <c r="P4" s="37"/>
-    </row>
-    <row r="5" spans="2:16" ht="34.25" customHeight="1">
+        <v>242</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="26"/>
+    </row>
+    <row r="5" spans="2:18" ht="34.25" customHeight="1">
       <c r="B5" s="21"/>
       <c r="C5" s="22"/>
-      <c r="D5" s="35" t="s">
+      <c r="D5" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="12"/>
+      <c r="E5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H5" s="12"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36" t="s">
+      <c r="I5" s="12"/>
+      <c r="J5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L5" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="L5" s="36"/>
-      <c r="M5" s="36"/>
-      <c r="N5" s="37"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="37"/>
-    </row>
-    <row r="6" spans="2:16" ht="34.25" customHeight="1">
-      <c r="B6" s="21"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="35" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="36"/>
-      <c r="M6" s="36"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="38"/>
-      <c r="P6" s="37"/>
-    </row>
-    <row r="7" spans="2:16" ht="34.25" customHeight="1">
+      <c r="M5" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P5" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="26"/>
+    </row>
+    <row r="6" spans="2:18" ht="34.25" customHeight="1">
+      <c r="B6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="3"/>
+    </row>
+    <row r="7" spans="2:18" ht="34.25" customHeight="1">
       <c r="B7" s="2"/>
       <c r="C7" s="1"/>
       <c r="D7" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+        <v>229</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="O7" s="6"/>
-      <c r="P7" s="3"/>
-    </row>
-    <row r="8" spans="2:16" ht="34.25" customHeight="1">
+      <c r="J7" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="3"/>
+    </row>
+    <row r="8" spans="2:18" ht="34" customHeight="1">
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
+        <v>230</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="O8" s="7"/>
-      <c r="P8" s="3"/>
-    </row>
-    <row r="9" spans="2:16" ht="34" customHeight="1">
+      <c r="J8" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="3"/>
+    </row>
+    <row r="9" spans="2:18" ht="34" customHeight="1">
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
+        <v>231</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>248</v>
+      </c>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" s="7"/>
-      <c r="P9" s="3"/>
-    </row>
-    <row r="10" spans="2:16" ht="34" customHeight="1">
+      <c r="J9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P9" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="3"/>
+    </row>
+    <row r="10" spans="2:18" ht="34" customHeight="1">
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
+        <v>232</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="O10" s="7"/>
-      <c r="P10" s="3"/>
-    </row>
-    <row r="11" spans="2:16" ht="34" customHeight="1">
+      <c r="J10" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="3"/>
+    </row>
+    <row r="11" spans="2:18" ht="34" customHeight="1">
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
+        <v>236</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="16" t="s">
-        <v>214</v>
-      </c>
-      <c r="O11" s="7"/>
-      <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="2:16" ht="34" customHeight="1">
+      <c r="J11" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="P11" s="16" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="2:18" ht="34" customHeight="1">
       <c r="B12" s="2"/>
       <c r="C12" s="1"/>
       <c r="D12" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
+        <v>233</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="N12" s="16"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="3"/>
-    </row>
-    <row r="13" spans="2:16" ht="34" customHeight="1">
+      <c r="J12" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P12" s="16" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="3"/>
+    </row>
+    <row r="13" spans="2:18" ht="34" customHeight="1">
       <c r="B13" s="2"/>
       <c r="C13" s="1"/>
       <c r="D13" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
+        <v>234</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
-      <c r="J13" s="8"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="16" t="s">
-        <v>213</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="3"/>
-    </row>
-    <row r="14" spans="2:16" ht="34" customHeight="1">
+      <c r="J13" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N13" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="3"/>
+    </row>
+    <row r="14" spans="2:18" ht="34" customHeight="1">
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
+        <v>235</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>263</v>
+      </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
-      <c r="J14" s="8"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="16" t="s">
-        <v>215</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="3"/>
-    </row>
-    <row r="15" spans="2:16" ht="34" customHeight="1">
-      <c r="B15" s="2"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="8"/>
-      <c r="K15" s="8"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="3"/>
+      <c r="J14" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>242</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P14" s="16" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="E2:I2"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:H2"/>
-    <mergeCell ref="I2:M2"/>
+    <mergeCell ref="J2:O2"/>
   </mergeCells>
   <pageMargins left="0.74805557727813721" right="0.74805557727813721" top="0.98430556058883667" bottom="0.98430556058883667" header="0.51166665554046631" footer="0.51166665554046631"/>
   <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" draft="1" r:id="rId1"/>
@@ -1894,8 +2200,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D4E040F-E999-4313-A753-E953A6C63672}">
   <dimension ref="B2:P12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:N4"/>
+    <sheetView topLeftCell="G2" zoomScale="125" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
@@ -1912,42 +2218,42 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:16" ht="34.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="25" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="O2" s="23" t="s">
+      <c r="O2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:16" ht="34.25" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -1975,9 +2281,9 @@
       <c r="M3" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="N3" s="26"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="26"/>
+      <c r="N3" s="30"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="30"/>
     </row>
     <row r="4" spans="2:16" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
@@ -2351,7 +2657,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5D5D95A-4BE5-4CD5-8004-5D4BAFBC9A8F}">
   <dimension ref="B2:T22"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
+    <sheetView topLeftCell="A6" zoomScale="60" zoomScaleNormal="60" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="17"/>
   <cols>
@@ -2370,46 +2676,46 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="25" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:20" ht="34.25" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -2447,9 +2753,9 @@
         <v>14</v>
       </c>
       <c r="Q3" s="4"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="26"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="30"/>
     </row>
     <row r="4" spans="2:20" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
@@ -3371,45 +3677,45 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="31" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="25" t="s">
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:19" ht="34.25" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="10" t="s">
         <v>44</v>
       </c>
@@ -3446,9 +3752,9 @@
       <c r="P3" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="26"/>
+      <c r="Q3" s="30"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="30"/>
     </row>
     <row r="4" spans="2:19" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
@@ -3992,41 +4298,41 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:15" ht="34.25" customHeight="1">
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="D2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="31" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="25" t="s">
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="23" t="s">
+      <c r="N2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:15" ht="34.25" customHeight="1">
-      <c r="B3" s="26"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
       <c r="E3" s="10" t="s">
         <v>120</v>
       </c>
@@ -4051,9 +4357,9 @@
       <c r="L3" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="M3" s="26"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="26"/>
+      <c r="M3" s="30"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="30"/>
     </row>
     <row r="4" spans="2:15" ht="34.25" customHeight="1">
       <c r="B4" s="2"/>
